--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,127 +43,130 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>inches</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>loose</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>di</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>maybe</t>
   </si>
   <si>
     <t>thought</t>
@@ -172,135 +175,135 @@
     <t>tried</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>1</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>back</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
-    <t>look</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>time</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -322,25 +325,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>expansion</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>happy</t>
   </si>
   <si>
     <t>learn</t>
@@ -352,37 +358,40 @@
     <t>sturdy</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>playing</t>
   </si>
   <si>
     <t>nice</t>
+  </si>
+  <si>
+    <t>grandson</t>
   </si>
   <si>
     <t>play</t>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -865,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9047619047619048</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8636363636363636</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,16 +995,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7464788732394366</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1086,16 +1095,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9">
         <v>0.7083333333333334</v>
@@ -1165,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.703125</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.569583931133429</v>
+        <v>0.5581061692969871</v>
       </c>
       <c r="L11">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M11">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6720430107526881</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.5507246376811594</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1324,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.631578947368421</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13">
-        <v>0.4854771784232365</v>
+        <v>0.487551867219917</v>
       </c>
       <c r="L13">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M13">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6310679611650486</v>
+        <v>0.671875</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>0.4540983606557377</v>
+        <v>0.45</v>
       </c>
       <c r="L14">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M14">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6181818181818182</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>0.363914373088685</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="L15">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>208</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6041666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>0.3554216867469879</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L16">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5952380952380952</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17">
-        <v>0.3191489361702128</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5878378378378378</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C18">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>0.3166666666666667</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1624,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5806451612903226</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>0.3018867924528302</v>
+        <v>0.325</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,10 +1677,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>0.291005291005291</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L20">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1724,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5546218487394958</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>0.2542372881355932</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5142857142857142</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22">
-        <v>0.1875</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5101449275362319</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C23">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23">
-        <v>0.1726907630522088</v>
+        <v>0.1953125</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>206</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>0.1724137931034483</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25">
-        <v>0.1666666666666667</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26">
-        <v>0.1608391608391608</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2024,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4523809523809524</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K27">
-        <v>0.1559139784946237</v>
+        <v>0.16</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,37 +2074,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>24</v>
       </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>30</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K28">
-        <v>0.152</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2115,13 +2124,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4285714285714285</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,31 +2142,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29">
-        <v>0.1482456140350877</v>
+        <v>0.1446099912357581</v>
       </c>
       <c r="L29">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M29">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,10 +2177,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K30">
-        <v>0.09740259740259741</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2224,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4210526315789473</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K31">
-        <v>0.07852044127190136</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L31">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1420</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4186046511627907</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K32">
         <v>0.07782101167315175</v>
@@ -2315,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4015748031496063</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K33">
-        <v>0.07754010695187166</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2357,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2374,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3981042654028436</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C34">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,31 +2392,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K34">
-        <v>0.07262569832402235</v>
+        <v>0.07342430149447693</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>332</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3734939759036144</v>
+        <v>0.3828125</v>
       </c>
       <c r="C35">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2433,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K35">
-        <v>0.05862068965517241</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2457,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3666666666666666</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,31 +2492,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>0.04394141145139813</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>718</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,13 +2524,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.359375</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2533,7 +2542,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37">
+        <v>0.05111821086261981</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2541,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3518518518518519</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2560,6 +2593,30 @@
       </c>
       <c r="H38">
         <v>35</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38">
+        <v>0.04539385847797063</v>
+      </c>
+      <c r="L38">
+        <v>34</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>0.92</v>
+      </c>
+      <c r="O38">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2567,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3283582089552239</v>
+        <v>0.35</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2585,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2593,13 +2650,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3272727272727273</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2611,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2619,13 +2676,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3174603174603174</v>
+        <v>0.34375</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2637,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2645,13 +2702,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.303370786516854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2663,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2671,13 +2728,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.296875</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2689,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2697,13 +2754,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.293103448275862</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2715,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2723,13 +2780,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2722772277227723</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2741,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>147</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2749,13 +2806,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2622950819672131</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2767,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2775,13 +2832,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2448979591836735</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2793,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2801,13 +2858,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2319587628865979</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2819,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>149</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2827,13 +2884,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2173913043478261</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2845,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2853,13 +2910,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2871,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2879,13 +2936,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1965811965811966</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2897,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2905,13 +2962,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1958762886597938</v>
+        <v>0.215</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2923,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2931,13 +2988,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.177536231884058</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C53">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2949,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>227</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2957,13 +3014,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.17</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2975,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>166</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2983,25 +3040,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1679049034175334</v>
+        <v>0.2</v>
       </c>
       <c r="C55">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>560</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3009,13 +3066,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1645569620253164</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C56">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3027,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3035,13 +3092,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1642857142857143</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3053,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3061,25 +3118,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1635514018691589</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>179</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3087,13 +3144,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1610169491525424</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3105,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3113,13 +3170,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1481481481481481</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3131,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>92</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3139,25 +3196,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1455696202531646</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3165,13 +3222,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1401273885350318</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3183,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3191,25 +3248,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.138328530259366</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D63">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E63">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>299</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3217,13 +3274,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.13215859030837</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D64">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3235,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>394</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3243,13 +3300,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1314285714285714</v>
+        <v>0.140625</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3261,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3269,13 +3326,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.125</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3287,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>112</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3295,25 +3352,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1229946524064171</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3321,13 +3378,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1147540983606557</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3339,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3347,25 +3404,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1133603238866397</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E69">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3373,13 +3430,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1099476439790576</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3391,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>170</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3399,25 +3456,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09740259740259741</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3425,25 +3482,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09041095890410959</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C72">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>332</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3451,13 +3508,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.0898876404494382</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3469,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3477,7 +3534,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08333333333333333</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C74">
         <v>16</v>
@@ -3495,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3503,25 +3560,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.07107438016528926</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C75">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E75">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>562</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3529,25 +3586,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0623608017817372</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3555,25 +3612,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06197183098591549</v>
+        <v>0.07553956834532374</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>333</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3581,25 +3638,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05734767025089606</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>263</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3607,25 +3664,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05063291139240506</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F79">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>300</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3633,25 +3690,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04754601226993865</v>
+        <v>0.05379746835443038</v>
       </c>
       <c r="C80">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E80">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F80">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>621</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3659,25 +3716,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.04430379746835443</v>
+        <v>0.04949238578680203</v>
       </c>
       <c r="C81">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D81">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F81">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3685,25 +3742,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.03953488372093023</v>
+        <v>0.04460093896713615</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="F82">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3711,25 +3768,51 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03747072599531616</v>
+        <v>0.04447852760736196</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E83">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F83">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>411</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.03854875283446712</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>23</v>
+      </c>
+      <c r="E84">
+        <v>0.26</v>
+      </c>
+      <c r="F84">
+        <v>0.74</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
